--- a/data/raw/clients.xlsx
+++ b/data/raw/clients.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhElxWx0G3QE2rvJGyjdtCIiyLKQw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjpvKaojz3sDN3SzFwaEXh7/BqkuQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -91,7 +91,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miRYNKWsWcCayO1ugksGPBE7irhIg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh9qfvIceWnaI18/GDdiGZXthdGRw=="/>
     </ext>
   </extLst>
 </comments>
@@ -972,7 +972,7 @@
     <t>Greene County-Charlottesville, VA MSA</t>
   </si>
   <si>
-    <t>404 Roberston Avenue</t>
+    <t>404 Robertson Avenue</t>
   </si>
   <si>
     <t>1/6/2020</t>
@@ -1089,7 +1089,7 @@
     <t>Fluvanna County High School</t>
   </si>
   <si>
-    <t>28 Bolining Circle</t>
+    <t>28 Bolling Circle</t>
   </si>
   <si>
     <t>84 Timber Road</t>
@@ -7104,7 +7104,7 @@
       </c>
       <c r="AR19" s="62"/>
       <c r="AS19" s="69"/>
-      <c r="AT19" s="62" t="s">
+      <c r="AT19" s="73" t="s">
         <v>283</v>
       </c>
       <c r="AU19" s="62" t="s">
@@ -8077,7 +8077,7 @@
       <c r="Q25" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="R25" s="62" t="s">
+      <c r="R25" s="73" t="s">
         <v>322</v>
       </c>
       <c r="S25" s="62" t="s">
